--- a/assignment 3/output/part2_auto_encoders/3_layers.xlsx
+++ b/assignment 3/output/part2_auto_encoders/3_layers.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>hiddenSize1</t>
   </si>
@@ -54,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -64,14 +64,22 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -81,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5546875" customWidth="true"/>
@@ -94,25 +102,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -124,19 +132,19 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>45.220147599999997</v>
+        <v>45.157172600000003</v>
       </c>
       <c r="G2">
-        <v>99.260000000000005</v>
+        <v>67.560000000000002</v>
       </c>
     </row>
     <row r="3">
@@ -147,19 +155,19 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>52.528939600000001</v>
+        <v>28.7687463</v>
       </c>
       <c r="G3">
-        <v>99.299999999999997</v>
+        <v>67.439999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -170,19 +178,19 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F4">
-        <v>15.087721</v>
+        <v>44.103185000000003</v>
       </c>
       <c r="G4">
-        <v>68.739999999999995</v>
+        <v>98.180000000000007</v>
       </c>
     </row>
     <row r="5">
@@ -193,19 +201,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>16.033106100000001</v>
+        <v>42.745392699999996</v>
       </c>
       <c r="G5">
-        <v>62.040000000000006</v>
+        <v>97.579999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -216,19 +224,19 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F6">
-        <v>27.305440999999998</v>
+        <v>91.882050300000003</v>
       </c>
       <c r="G6">
-        <v>77.180000000000007</v>
+        <v>87.079999999999998</v>
       </c>
     </row>
     <row r="7">
@@ -239,19 +247,19 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F7">
-        <v>30.1603867</v>
+        <v>83.918126599999994</v>
       </c>
       <c r="G7">
-        <v>71.399999999999991</v>
+        <v>98.560000000000002</v>
       </c>
     </row>
     <row r="8">
@@ -262,19 +270,19 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="F8">
-        <v>29.005801900000002</v>
+        <v>161.34764659999999</v>
       </c>
       <c r="G8">
-        <v>99.239999999999995</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -285,19 +293,19 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="F9">
-        <v>26.047042900000001</v>
+        <v>163.42516689999999</v>
       </c>
       <c r="G9">
-        <v>98.219999999999999</v>
+        <v>98.140000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -308,19 +316,19 @@
         <v>50</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>66.222614800000002</v>
+        <v>31.5598299</v>
       </c>
       <c r="G10">
-        <v>99.819999999999993</v>
+        <v>81.719999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -331,19 +339,19 @@
         <v>50</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>63.025424100000002</v>
+        <v>31.0565836</v>
       </c>
       <c r="G11">
-        <v>99.620000000000005</v>
+        <v>97.939999999999998</v>
       </c>
     </row>
     <row r="12">
@@ -354,19 +362,19 @@
         <v>50</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F12">
-        <v>13.5470354</v>
+        <v>67.403892299999995</v>
       </c>
       <c r="G12">
-        <v>67.480000000000004</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="13">
@@ -377,19 +385,19 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F13">
-        <v>13.8418616</v>
+        <v>77.510217299999994</v>
       </c>
       <c r="G13">
-        <v>71.140000000000001</v>
+        <v>99.379999999999995</v>
       </c>
     </row>
     <row r="14">
@@ -400,19 +408,19 @@
         <v>50</v>
       </c>
       <c r="C14">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F14">
-        <v>31.754342099999999</v>
+        <v>129.7215376</v>
       </c>
       <c r="G14">
-        <v>98.299999999999997</v>
+        <v>99.760000000000005</v>
       </c>
     </row>
     <row r="15">
@@ -423,19 +431,19 @@
         <v>50</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F15">
-        <v>32.3729996</v>
+        <v>128.04224809999999</v>
       </c>
       <c r="G15">
-        <v>85.040000000000006</v>
+        <v>99.700000000000003</v>
       </c>
     </row>
     <row r="16">
@@ -446,19 +454,19 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E16">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="F16">
-        <v>43.150053100000001</v>
+        <v>254.228397</v>
       </c>
       <c r="G16">
-        <v>99.5</v>
+        <v>99.900000000000006</v>
       </c>
     </row>
     <row r="17">
@@ -469,203 +477,387 @@
         <v>50</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E17">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="F17">
-        <v>41.110810999999998</v>
+        <v>253.51140910000001</v>
       </c>
       <c r="G17">
-        <v>99.420000000000002</v>
+        <v>99.839999999999989</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>103.7376232</v>
+        <v>40.745349500000003</v>
       </c>
       <c r="G18">
-        <v>99.760000000000005</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>133.24324580000001</v>
+        <v>46.692652500000001</v>
       </c>
       <c r="G19">
-        <v>99.780000000000001</v>
+        <v>55.000000000000007</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F20">
-        <v>33.6851251</v>
+        <v>91.951275800000005</v>
       </c>
       <c r="G20">
-        <v>74.799999999999997</v>
+        <v>99.700000000000003</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F21">
-        <v>34.281383099999999</v>
+        <v>92.529837700000002</v>
       </c>
       <c r="G21">
-        <v>67.399999999999991</v>
+        <v>99.680000000000007</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F22">
-        <v>77.014186699999996</v>
+        <v>176.2252493</v>
       </c>
       <c r="G22">
-        <v>86.980000000000004</v>
+        <v>99.739999999999995</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F23">
-        <v>74.846362099999993</v>
+        <v>175.8581786</v>
       </c>
       <c r="G23">
-        <v>93.5</v>
+        <v>99.859999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E24">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="F24">
-        <v>103.4766262</v>
+        <v>435.89257400000002</v>
       </c>
       <c r="G24">
-        <v>99.379999999999995</v>
+        <v>99.960000000000008</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C25">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E25">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="F25">
-        <v>103.52192220000001</v>
+        <v>635.52002130000005</v>
       </c>
       <c r="G25">
-        <v>98.839999999999989</v>
+        <v>99.920000000000002</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>200</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>96.768439299999997</v>
+      </c>
+      <c r="G26">
+        <v>89.019999999999996</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>200</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>97.211997400000001</v>
+      </c>
+      <c r="G27">
+        <v>61.899999999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>200</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>199.8197188</v>
+      </c>
+      <c r="G28">
+        <v>99.660000000000011</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>200</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>195.0001451</v>
+      </c>
+      <c r="G29">
+        <v>99.719999999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>200</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>200</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>200</v>
+      </c>
+      <c r="F30">
+        <v>376.6688729</v>
+      </c>
+      <c r="G30">
+        <v>99.780000000000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>200</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>200</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>200</v>
+      </c>
+      <c r="F31">
+        <v>374.87846639999998</v>
+      </c>
+      <c r="G31">
+        <v>99.859999999999999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>200</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>400</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>400</v>
+      </c>
+      <c r="F32">
+        <v>757.77661939999996</v>
+      </c>
+      <c r="G32">
+        <v>99.900000000000006</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>200</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>400</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>400</v>
+      </c>
+      <c r="F33">
+        <v>814.13954530000001</v>
+      </c>
+      <c r="G33">
+        <v>99.879999999999995</v>
       </c>
     </row>
   </sheetData>
